--- a/result2_test.xlsx
+++ b/result2_test.xlsx
@@ -1,14 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lambe\Desktop\A\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A08D24-B3AB-45EB-8760-A0EE10112C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -699,11 +706,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线 Light （标题）"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -722,1163 +741,3505 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D225"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D225" sqref="A1:D225"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="11.24609375" customWidth="true"/>
-    <col min="3" max="3" width="11.24609375" customWidth="true"/>
-    <col min="4" max="4" width="9.77734375" customWidth="true"/>
-    <col min="1" max="1" width="12.1796875" customWidth="true"/>
+    <col min="1" max="1" width="12.19921875" customWidth="1"/>
+    <col min="2" max="3" width="14.265625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="1:4" ht="14.65">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" ht="14.65">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="B2" s="1">
+        <v>1.4286897385363466</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.7745073033051109</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.99895040882459296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.65">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="B3" s="1">
+        <v>-1.4275504822367135</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.9211082091523737</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.99047112575274399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.65">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="B4" s="1">
+        <v>-2.3852889325578954</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.57751710290895586</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.98947028927297676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.65">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="B5" s="1">
+        <v>-2.2748871966986171</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-1.0687852559301982</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.98856861903725068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.65">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="B6" s="1">
+        <v>-1.1667648463897935</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-2.2913092257345866</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.98775199098547239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.65">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="B7" s="1">
+        <v>0.45636952012486121</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-2.5878472980054852</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.98700885214310341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.65">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="B8" s="1">
+        <v>1.9359872708812647</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-1.8576204074566498</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.98632965935873673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.65">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="B9" s="1">
+        <v>2.7079001574234822</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-0.39931642830049618</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.98570645919708466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.65">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+      <c r="B10" s="1">
+        <v>2.5007307149894036</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.2376260942557737</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.98513256926384962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.65">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+      <c r="B11" s="1">
+        <v>1.4046121049527278</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.4709241088214946</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.98460233338224479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.65">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+      <c r="B12" s="1">
+        <v>-0.19208355208653127</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.8869324967085057</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.98411093137766636</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.65">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+      <c r="B13" s="1">
+        <v>-1.7563653773120742</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.3620302474570014</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.98365422974561811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.65">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+      <c r="B14" s="1">
+        <v>-2.792039018804807</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.0775536582124154</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.98322866328729586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.65">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+      <c r="B15" s="1">
+        <v>-2.9891076701151507</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-0.56063556976795137</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.98283114046059239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.65">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+      <c r="B16" s="1">
+        <v>-2.3013044715393822</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-2.0604444776055657</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.98245896707125224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.65">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+      <c r="B17" s="1">
+        <v>-0.93934358572699372</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-2.9918748537031199</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.98210978428325457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.65">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+      <c r="B18" s="1">
+        <v>0.70693771162581187</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-3.1025902093971385</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.98178151790339152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.65">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+      <c r="B19" s="1">
+        <v>2.1871799709580144</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-2.3736300913610981</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.98147233661458699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.65">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+      <c r="B20" s="1">
+        <v>3.1134352773258072</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-1.0081443939960266</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.98118061312171889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.65">
+      <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+      <c r="B21" s="1">
+        <v>3.2553869100574344</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.63573814318180566</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.98090490908142058</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.65">
+      <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+      <c r="B22" s="1">
+        <v>2.5874109138094732</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.144482029749113</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.98064393585997123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.65">
+      <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+      <c r="B23" s="1">
+        <v>1.2816490222883563</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3.1531870996089788</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.98039653976466212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.65">
+      <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+      <c r="B24" s="1">
+        <v>-0.34514296878588907</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3.428954835952235</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.98016168479525079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.65">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+      <c r="B25" s="1">
+        <v>-1.9135832829519481</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.9166121762196004</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.97993843800741942</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.65">
+      <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+      <c r="B26" s="1">
+        <v>-3.0708986447524169</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.7405504565440135</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.97972595695288012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.65">
+      <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+      <c r="B27" s="1">
+        <v>-3.5670047953340664</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.16689906605776458</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.97952347894815517</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.65">
+      <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+      <c r="B28" s="1">
+        <v>-3.3024305297277903</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-1.4617508246781872</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.97933031187322317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.65">
+      <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+      <c r="B29" s="1">
+        <v>-2.3408469188397261</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-2.8025927116173954</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.97914582612539369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.65">
+      <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+      <c r="B30" s="1">
+        <v>-0.88710927725919353</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-3.5830713303870185</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.97896944775225969</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.65">
+      <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+      <c r="B31" s="1">
+        <v>0.76145223651796434</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-3.6519548479608925</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.97880065240227043</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.65">
+      <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+      <c r="B32" s="1">
+        <v>2.2783833044427078</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-3.0027860425192792</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.9786389600671398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14.65">
+      <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
+      <c r="B33" s="1">
+        <v>3.3725320520750319</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-1.7677400837936719</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.97848393050730353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14.65">
+      <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
+      <c r="B34" s="1">
+        <v>3.8412837377422302</v>
+      </c>
+      <c r="C34" s="1">
+        <v>-0.18572495782973583</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.97833515918339087</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14.65">
+      <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
+      <c r="B35" s="1">
+        <v>3.6037382253558805</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.4470861551744811</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.9781922737241181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14.65">
+      <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
+      <c r="B36" s="1">
+        <v>2.7095491650076551</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2.8337822016337699</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.97805493076992278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.65">
+      <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
+      <c r="B37" s="1">
+        <v>1.323925066405274</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3.7296314401016879</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.97792281321591179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.65">
+      <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
+      <c r="B38" s="1">
+        <v>-0.3065923599281028</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3.9824414931987544</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.97779562773176809</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14.65">
+      <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
+      <c r="B39" s="1">
+        <v>-1.9001227370001734</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3.5544684359315086</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.97767310257568585</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="14.65">
+      <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
+      <c r="B40" s="1">
+        <v>-3.1885158536734353</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2.5236710857157911</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.97755498564459464</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="14.65">
+      <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
+      <c r="B41" s="1">
+        <v>-3.9611301569346451</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.0657385980376977</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.97744104272304588</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="14.65">
+      <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
+      <c r="B42" s="1">
+        <v>-4.0966128789544634</v>
+      </c>
+      <c r="C42" s="1">
+        <v>-0.57868970146675491</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.97733105592737191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="14.65">
+      <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0" t="s">
+      <c r="B43" s="1">
+        <v>-3.5785193262981827</v>
+      </c>
+      <c r="C43" s="1">
+        <v>-2.145239755193602</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.97722482230468755</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14.65">
+      <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0" t="s">
+      <c r="B44" s="1">
+        <v>-2.4935316785390329</v>
+      </c>
+      <c r="C44" s="1">
+        <v>-3.3883414422307117</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.97712215256989177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="14.65">
+      <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0" t="s">
+      <c r="B45" s="1">
+        <v>-1.0138393922058397</v>
+      </c>
+      <c r="C45" s="1">
+        <v>-4.1184172861309518</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.97702286997711041</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="14.65">
+      <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0" t="s">
+      <c r="B46" s="1">
+        <v>0.63248731263169611</v>
+      </c>
+      <c r="C46" s="1">
+        <v>-4.2284553749977754</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.97692680929398057</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="14.65">
+      <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0" t="s">
+      <c r="B47" s="1">
+        <v>2.1978383022261849</v>
+      </c>
+      <c r="C47" s="1">
+        <v>-3.7067502097709317</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.97683381588104701</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="14.65">
+      <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0" t="s">
+      <c r="B48" s="1">
+        <v>3.4522933929285773</v>
+      </c>
+      <c r="C48" s="1">
+        <v>-2.6349095380995355</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.97674374485180626</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14.65">
+      <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0" t="s">
+      <c r="B49" s="1">
+        <v>4.2162812494448625</v>
+      </c>
+      <c r="C49" s="1">
+        <v>-1.1724381520116751</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.97665646031660203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.65">
+      <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0" t="s">
+      <c r="B50" s="1">
+        <v>4.384316182910772</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.46898326284770048</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.97657183469487641</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14.65">
+      <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0" t="s">
+      <c r="B51" s="1">
+        <v>3.9370746052068637</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2.0572134008289393</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.97648974808818811</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14.65">
+      <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0" t="s">
+      <c r="B52" s="1">
+        <v>2.9409105828346505</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3.372567817154219</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.97641008770937487</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="14.65">
+      <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0" t="s">
+      <c r="B53" s="1">
+        <v>1.5356969939807814</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4.2373653482056755</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.97633274736352138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="14.65">
+      <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0" t="s">
+      <c r="B54" s="1">
+        <v>-8.661982817769931E-2</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4.5383439663025085</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.97625762697257679</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="14.65">
+      <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0" t="s">
+      <c r="B55" s="1">
+        <v>-1.7093173086630413</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4.2394244339287548</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.97618463213981777</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="14.65">
+      <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0" t="s">
+      <c r="B56" s="1">
+        <v>-3.1201083263962497</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3.3837558624071171</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.97611367375262981</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="14.65">
+      <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0" t="s">
+      <c r="B57" s="1">
+        <v>-4.1383801745892139</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2.0854406298140646</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.97604466761760822</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="14.65">
+      <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0" t="s">
+      <c r="B58" s="1">
+        <v>-4.6371140374356532</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.51262006342553734</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.97597753412538879</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="14.65">
+      <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0" t="s">
+      <c r="B59" s="1">
+        <v>-4.5570520045672973</v>
+      </c>
+      <c r="C59" s="1">
+        <v>-1.1354363891563186</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.97591219794222095</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="14.65">
+      <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0" t="s">
+      <c r="B60" s="1">
+        <v>-3.9118155719198926</v>
+      </c>
+      <c r="C60" s="1">
+        <v>-2.6540442865371729</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.97584858772627936</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="14.65">
+      <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0" t="s">
+      <c r="B61" s="1">
+        <v>-2.7838788463886686</v>
+      </c>
+      <c r="C61" s="1">
+        <v>-3.858311176890135</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.9757866358673446</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="14.65">
+      <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
+      <c r="B62" s="1">
+        <v>-1.312410507779479</v>
+      </c>
+      <c r="C62" s="1">
+        <v>-4.6048236874838118</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.97572627824425562</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="14.65">
+      <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0" t="s">
+      <c r="B63" s="1">
+        <v>0.32510299037274487</v>
+      </c>
+      <c r="C63" s="1">
+        <v>-4.8074305564963433</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.97566745400444799</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="14.65">
+      <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0" t="s">
+      <c r="B64" s="1">
+        <v>1.9349402575826511</v>
+      </c>
+      <c r="C64" s="1">
+        <v>-4.445596377481043</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.97561010535641912</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="14.65">
+      <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0" t="s">
+      <c r="B65" s="1">
+        <v>3.3301611635295867</v>
+      </c>
+      <c r="C65" s="1">
+        <v>-3.5647680039542426</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.97555417738019345</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="14.65">
+      <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="0" t="s">
+      <c r="B66" s="1">
+        <v>4.3518627172051358</v>
+      </c>
+      <c r="C66" s="1">
+        <v>-2.2691500296971614</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.97549961785120054</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="14.65">
+      <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
+      <c r="B67" s="1">
+        <v>4.8863592620388427</v>
+      </c>
+      <c r="C67" s="1">
+        <v>-0.70812041961228822</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.97544637707597925</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="14.65">
+      <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="0" t="s">
+      <c r="B68" s="1">
+        <v>4.8765800858170074</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.94185060065234583</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.97539440774156105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="14.65">
+      <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0" t="s">
+      <c r="B69" s="1">
+        <v>4.3267284437817386</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2.4975379637660757</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.97534366477367707</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="14.65">
+      <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="0" t="s">
+      <c r="B70" s="1">
+        <v>3.3000447058737747</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3.7892114915260251</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.97529410520629245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="14.65">
+      <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="0" t="s">
+      <c r="B71" s="1">
+        <v>1.9102723302058082</v>
+      </c>
+      <c r="C71" s="1">
+        <v>4.6786117073066498</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.97524568805903256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="14.65">
+      <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
+      <c r="B72" s="1">
+        <v>0.30806142734553643</v>
+      </c>
+      <c r="C72" s="1">
+        <v>5.0728454232112883</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.97519837422469013</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="14.65">
+      <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="0" t="s">
+      <c r="B73" s="1">
+        <v>-1.3359963272524338</v>
+      </c>
+      <c r="C73" s="1">
+        <v>4.9329379554101704</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.97515212636218063</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="14.65">
+      <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="0" t="s">
+      <c r="B74" s="1">
+        <v>-2.8497589741185538</v>
+      </c>
+      <c r="C74" s="1">
+        <v>4.2764148035311891</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.97510690879886253</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="14.65">
+      <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="0" t="s">
+      <c r="B75" s="1">
+        <v>-4.0773792437618299</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3.1739410063091458</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.97506268743749647</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="14.65">
+      <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="0" t="s">
+      <c r="B76" s="1">
+        <v>-4.8948045700500797</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1.7406525371087924</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.97501942967075161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="14.65">
+      <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="0" t="s">
+      <c r="B77" s="1">
+        <v>-5.2214771743412998</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.12331367044982594</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.97497710430047624</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="14.65">
+      <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="0" t="s">
+      <c r="B78" s="1">
+        <v>-5.0272448073378513</v>
+      </c>
+      <c r="C78" s="1">
+        <v>-1.5152142626683018</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.97493568146207077</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="14.65">
+      <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="0" t="s">
+      <c r="B79" s="1">
+        <v>-4.3340244194531214</v>
+      </c>
+      <c r="C79" s="1">
+        <v>-3.012527020184578</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.97489513255447513</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="14.65">
+      <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="0" t="s">
+      <c r="B80" s="1">
+        <v>-3.212301547300783</v>
+      </c>
+      <c r="C80" s="1">
+        <v>-4.2225839812064061</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.9748554281772891</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="14.65">
+      <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="0" t="s">
+      <c r="B81" s="1">
+        <v>-1.7730445336209273</v>
+      </c>
+      <c r="C81" s="1">
+        <v>-5.0294540384594359</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.9748165444274276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="14.65">
+      <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="0" t="s">
+      <c r="B82" s="1">
+        <v>-0.15602025981941137</v>
+      </c>
+      <c r="C82" s="1">
+        <v>-5.357680378707359</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.97477845605012414</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="14.65">
+      <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="0" t="s">
+      <c r="B83" s="1">
+        <v>1.4842145530340642</v>
+      </c>
+      <c r="C83" s="1">
+        <v>-5.1784325487761995</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.97474113881409374</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="14.65">
+      <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="0" t="s">
+      <c r="B84" s="1">
+        <v>2.9932239216143914</v>
+      </c>
+      <c r="C84" s="1">
+        <v>-4.5110565333391888</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.97470456947961981</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="14.65">
+      <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="0" t="s">
+      <c r="B85" s="1">
+        <v>4.2310759117482055</v>
+      </c>
+      <c r="C85" s="1">
+        <v>-3.4200833592260866</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.97466872573629404</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="14.65">
+      <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="0" t="s">
+      <c r="B86" s="1">
+        <v>5.0848952346022136</v>
+      </c>
+      <c r="C86" s="1">
+        <v>-2.0081723929952457</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.97463358614281215</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="14.65">
+      <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="0" t="s">
+      <c r="B87" s="1">
+        <v>5.4785184915180221</v>
+      </c>
+      <c r="C87" s="1">
+        <v>-0.40581140324158393</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.97459913012458732</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="14.65">
+      <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="0" t="s">
+      <c r="B88" s="1">
+        <v>5.3785039284073797</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1.2411546239843771</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.97456533787507138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="14.65">
+      <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="0" t="s">
+      <c r="B89" s="1">
+        <v>4.7961133688444866</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2.7849555315052257</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.97453219036508165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="14.65">
+      <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="0" t="s">
+      <c r="B90" s="1">
+        <v>3.7852613006326479</v>
+      </c>
+      <c r="C90" s="1">
+        <v>4.0890560263881923</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.97449966928430409</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="14.65">
+      <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="0" t="s">
+      <c r="B91" s="1">
+        <v>2.4367809156450702</v>
+      </c>
+      <c r="C91" s="1">
+        <v>5.0398981030725967</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.9744677570123893</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="14.65">
+      <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="0" t="s">
+      <c r="B92" s="1">
+        <v>0.86965990270037474</v>
+      </c>
+      <c r="C92" s="1">
+        <v>5.5562620575111001</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.97443643658152967</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="14.65">
+      <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="0" t="s">
+      <c r="B93" s="1">
+        <v>-0.77987261444987732</v>
+      </c>
+      <c r="C93" s="1">
+        <v>5.5955364368517344</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.97440569166329138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="14.65">
+      <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="0" t="s">
+      <c r="B94" s="1">
+        <v>-2.3703868912135548</v>
+      </c>
+      <c r="C94" s="1">
+        <v>5.1564870809438643</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.97437550650807014</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="14.65">
+      <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="0" t="s">
+      <c r="B95" s="1">
+        <v>-3.7673550293847664</v>
+      </c>
+      <c r="C95" s="1">
+        <v>4.2784324003763929</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.9743458659458436</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="14.65">
+      <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="0" t="s">
+      <c r="B96" s="1">
+        <v>-4.8542961526680655</v>
+      </c>
+      <c r="C96" s="1">
+        <v>3.0370384277160811</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.97431675535638873</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="14.65">
+      <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="0" t="s">
+      <c r="B97" s="1">
+        <v>-5.5420746078392895</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1.5372181727438645</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.97428816063073964</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="14.65">
+      <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="0" t="s">
+      <c r="B98" s="1">
+        <v>-5.775656811294966</v>
+      </c>
+      <c r="C98" s="1">
+        <v>-9.6164622159668381E-2</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.97426006815991562</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="14.65">
+      <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="0" t="s">
+      <c r="B99" s="1">
+        <v>-5.5378734218994436</v>
+      </c>
+      <c r="C99" s="1">
+        <v>-1.7289411102508612</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.9742324648077485</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="14.65">
+      <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="0" t="s">
+      <c r="B100" s="1">
+        <v>-4.849997835543828</v>
+      </c>
+      <c r="C100" s="1">
+        <v>-3.2287168194623654</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.97420533789764019</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="14.65">
+      <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="0" t="s">
+      <c r="B101" s="1">
+        <v>-3.7692168252222382</v>
+      </c>
+      <c r="C101" s="1">
+        <v>-4.4754775855702063</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.97417867518530721</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="14.65">
+      <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="0" t="s">
+      <c r="B102" s="1">
+        <v>-2.3833133505134705</v>
+      </c>
+      <c r="C102" s="1">
+        <v>-5.370894560458682</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.97415246484443752</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="14.65">
+      <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="0" t="s">
+      <c r="B103" s="1">
+        <v>-0.80308713069569981</v>
+      </c>
+      <c r="C103" s="1">
+        <v>-5.8456419609708528</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.97412669544456476</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="14.65">
+      <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="0" t="s">
+      <c r="B104" s="1">
+        <v>0.84680818215709874</v>
+      </c>
+      <c r="C104" s="1">
+        <v>-5.8642284262897526</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0.97410135594061531</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="14.65">
+      <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="0" t="s">
+      <c r="B105" s="1">
+        <v>2.4378401484770431</v>
+      </c>
+      <c r="C105" s="1">
+        <v>-5.4270587999480675</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.97407643565274904</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="14.65">
+      <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="0" t="s">
+      <c r="B106" s="1">
+        <v>3.8475860371057138</v>
+      </c>
+      <c r="C106" s="1">
+        <v>-4.5696694312662292</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.97405192425224341</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="14.65">
+      <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="0" t="s">
+      <c r="B107" s="1">
+        <v>4.9689703855843677</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-3.3592987677869388</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0.97402781174629993</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="14.65">
+      <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="0" t="s">
+      <c r="B108" s="1">
+        <v>5.7180781737784221</v>
+      </c>
+      <c r="C108" s="1">
+        <v>-1.889149958419607</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.97400408846726461</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="14.65">
+      <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="0" t="s">
+      <c r="B109" s="1">
+        <v>6.0400069454542162</v>
+      </c>
+      <c r="C109" s="1">
+        <v>-0.27086016175783634</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0.97398074505524812</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="14.65">
+      <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="0" t="s">
+      <c r="B110" s="1">
+        <v>5.9123910039183301</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1.3741973361656747</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0.97395777245093229</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="14.65">
+      <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="0" t="s">
+      <c r="B111" s="1">
+        <v>5.3464190825046343</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2.9240927468877169</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0.97393516187900619</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="14.65">
+      <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="0" t="s">
+      <c r="B112" s="1">
+        <v>4.3853587321302738</v>
+      </c>
+      <c r="C112" s="1">
+        <v>4.2653097326668208</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0.97391290484017579</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="14.65">
+      <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="0" t="s">
+      <c r="B113" s="1">
+        <v>3.1007818825971607</v>
+      </c>
+      <c r="C113" s="1">
+        <v>5.3008590157268785</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0.97389099310010507</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="14.65">
+      <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="0" t="s">
+      <c r="B114" s="1">
+        <v>1.5868441247393208</v>
+      </c>
+      <c r="C114" s="1">
+        <v>5.9569782620031964</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0.97386941867577792</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="14.65">
+      <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="0" t="s">
+      <c r="B115" s="1">
+        <v>-4.6904799314507035E-2</v>
+      </c>
+      <c r="C115" s="1">
+        <v>6.1879857362416715</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0.97384817383091971</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="14.65">
+      <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="0" t="s">
+      <c r="B116" s="1">
+        <v>-1.6836170394596115</v>
+      </c>
+      <c r="C116" s="1">
+        <v>5.9790047730903</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0.97382725106413714</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="14.65">
+      <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="0" t="s">
+      <c r="B117" s="1">
+        <v>-3.2075460843185697</v>
+      </c>
+      <c r="C117" s="1">
+        <v>5.346438360580418</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0.97380664309833698</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="14.65">
+      <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="0" t="s">
+      <c r="B118" s="1">
+        <v>-4.5121499208804172</v>
+      </c>
+      <c r="C118" s="1">
+        <v>4.3362359899495688</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0.97378634287588872</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="14.65">
+      <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="0" t="s">
+      <c r="B119" s="1">
+        <v>-5.5073432727011022</v>
+      </c>
+      <c r="C119" s="1">
+        <v>3.0201470013941183</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0.97376633787071964</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="14.65">
+      <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="0" t="s">
+      <c r="B120" s="1">
+        <v>-6.1254254988397641</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1.4902861015925393</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0.97374663037219877</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="14.65">
+      <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="0" t="s">
+      <c r="B121" s="1">
+        <v>-6.3253207459642642</v>
+      </c>
+      <c r="C121" s="1">
+        <v>-0.14756062280698598</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0.97372721233609527</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="14.65">
+      <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="0" t="s">
+      <c r="B122" s="1">
+        <v>-6.0948962523228687</v>
+      </c>
+      <c r="C122" s="1">
+        <v>-1.7813918726528346</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0.97370807645857993</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="14.65">
+      <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="0" t="s">
+      <c r="B123" s="1">
+        <v>-5.451264159184845</v>
+      </c>
+      <c r="C123" s="1">
+        <v>-3.3006804326977486</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0.97368925782673743</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="14.65">
+      <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="0" t="s">
+      <c r="B124" s="1">
+        <v>-4.4391112654727944</v>
+      </c>
+      <c r="C124" s="1">
+        <v>-4.6037715729787703</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0.97367066714019368</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="14.65">
+      <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="0" t="s">
+      <c r="B125" s="1">
+        <v>-3.127230982857486</v>
+      </c>
+      <c r="C125" s="1">
+        <v>-5.6045063658783549</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0.97365234075474594</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="14.65">
+      <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="0" t="s">
+      <c r="B126" s="1">
+        <v>-1.6035440710840767</v>
+      </c>
+      <c r="C126" s="1">
+        <v>-6.2376557975597349</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0.97363427392694801</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="14.65">
+      <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="0" t="s">
+      <c r="B127" s="1">
+        <v>3.1016892885742848E-2</v>
+      </c>
+      <c r="C127" s="1">
+        <v>-6.462845672590368</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0.97361646247700562</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="14.65">
+      <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="0" t="s">
+      <c r="B128" s="1">
+        <v>1.6693244403902072</v>
+      </c>
+      <c r="C128" s="1">
+        <v>-6.2667630884837831</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0.97359889401763944</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="14.65">
+      <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="0" t="s">
+      <c r="B129" s="1">
+        <v>3.2051107389671132</v>
+      </c>
+      <c r="C129" s="1">
+        <v>-5.6635546294053407</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0.97358156794831452</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="14.65">
+      <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="0" t="s">
+      <c r="B130" s="1">
+        <v>4.5397978910686385</v>
+      </c>
+      <c r="C130" s="1">
+        <v>-4.6934462818401208</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0.97356447928292111</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="14.65">
+      <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="0" t="s">
+      <c r="B131" s="1">
+        <v>5.5886739903687159</v>
+      </c>
+      <c r="C131" s="1">
+        <v>-3.4197277382372362</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0.97354762317142463</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="14.65">
+      <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="0" t="s">
+      <c r="B132" s="1">
+        <v>6.2860423211233103</v>
+      </c>
+      <c r="C132" s="1">
+        <v>-1.9243423660800054</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0.97353099489473516</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="14.65">
+      <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="0" t="s">
+      <c r="B133" s="1">
+        <v>6.5890496836951913</v>
+      </c>
+      <c r="C133" s="1">
+        <v>-0.30240323706521083</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0.97351458986055639</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="14.65">
+      <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="0" t="s">
+      <c r="B134" s="1">
+        <v>6.4799934026071382</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1.3439887963090751</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0.97349840359943374</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="14.65">
+      <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="0" t="s">
+      <c r="B135" s="1">
+        <v>5.9670086124850208</v>
+      </c>
+      <c r="C135" s="1">
+        <v>2.912219201928032</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0.97348243176017712</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="14.65">
+      <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="0" t="s">
+      <c r="B136" s="1">
+        <v>5.0831411846461325</v>
+      </c>
+      <c r="C136" s="1">
+        <v>4.3055168621614071</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0.97346667010678634</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="14.65">
+      <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="0" t="s">
+      <c r="B137" s="1">
+        <v>3.8839106902718412</v>
+      </c>
+      <c r="C137" s="1">
+        <v>5.4388068609575786</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0.97345111451373689</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="14.65">
+      <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="0" t="s">
+      <c r="B138" s="1">
+        <v>2.4435562780538933</v>
+      </c>
+      <c r="C138" s="1">
+        <v>6.2437162764919183</v>
+      </c>
+      <c r="D138" s="1">
+        <v>0.97343576096397433</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="14.65">
+      <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="0" t="s">
+      <c r="B139" s="1">
+        <v>0.85023141685033254</v>
+      </c>
+      <c r="C139" s="1">
+        <v>6.6724538263824904</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0.97342060554259491</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="14.65">
+      <c r="A140" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="0" t="s">
+      <c r="B140" s="1">
+        <v>-0.79953254741179591</v>
+      </c>
+      <c r="C140" s="1">
+        <v>6.7003619299133259</v>
+      </c>
+      <c r="D140" s="1">
+        <v>0.97340564443661259</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="14.65">
+      <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="0" t="s">
+      <c r="B141" s="1">
+        <v>-2.4067414704841892</v>
+      </c>
+      <c r="C141" s="1">
+        <v>6.3270263200077892</v>
+      </c>
+      <c r="D141" s="1">
+        <v>0.97339087392992019</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="14.65">
+      <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="0" t="s">
+      <c r="B142" s="1">
+        <v>-3.8758692964572057</v>
+      </c>
+      <c r="C142" s="1">
+        <v>5.5759181846590744</v>
+      </c>
+      <c r="D142" s="1">
+        <v>0.97337629039999307</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="14.65">
+      <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="0" t="s">
+      <c r="B143" s="1">
+        <v>-5.1204535258769361</v>
+      </c>
+      <c r="C143" s="1">
+        <v>4.4926314747224882</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0.97336189031606524</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="14.65">
+      <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="0" t="s">
+      <c r="B144" s="1">
+        <v>-6.0680358124347444</v>
+      </c>
+      <c r="C144" s="1">
+        <v>3.1418584329939829</v>
+      </c>
+      <c r="D144" s="1">
+        <v>0.9733476702361461</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="14.65">
+      <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="0" t="s">
+      <c r="B145" s="1">
+        <v>-6.6641773863801443</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1.6033152181673815</v>
+      </c>
+      <c r="D145" s="1">
+        <v>0.973333626804056</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="14.65">
+      <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="0" t="s">
+      <c r="B146" s="1">
+        <v>-6.8753418743008767</v>
+      </c>
+      <c r="C146" s="1">
+        <v>-3.3116741657630906E-2</v>
+      </c>
+      <c r="D146" s="1">
+        <v>0.97331975674532045</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="14.65">
+      <c r="A147" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="0" t="s">
+      <c r="B147" s="1">
+        <v>-6.6905104188706659</v>
+      </c>
+      <c r="C147" s="1">
+        <v>-1.672731737077126</v>
+      </c>
+      <c r="D147" s="1">
+        <v>0.97330605686699356</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="14.65">
+      <c r="A148" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="0" t="s">
+      <c r="B148" s="1">
+        <v>-6.1214712185478879</v>
+      </c>
+      <c r="C148" s="1">
+        <v>-3.2215036339839074</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0.97329252405478917</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="14.65">
+      <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="0" t="s">
+      <c r="B149" s="1">
+        <v>-5.2018030834925417</v>
+      </c>
+      <c r="C149" s="1">
+        <v>-4.5914344795214292</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0.97327915526781317</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="14.65">
+      <c r="A150" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="0" t="s">
+      <c r="B150" s="1">
+        <v>-3.9846459394317386</v>
+      </c>
+      <c r="C150" s="1">
+        <v>-5.7054490606201549</v>
+      </c>
+      <c r="D150" s="1">
+        <v>0.97326594753989282</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="14.65">
+      <c r="A151" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="0" t="s">
+      <c r="B151" s="1">
+        <v>-2.539416462113989</v>
+      </c>
+      <c r="C151" s="1">
+        <v>-6.5015720148103542</v>
+      </c>
+      <c r="D151" s="1">
+        <v>0.97325289797765435</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="14.65">
+      <c r="A152" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="0" t="s">
+      <c r="B152" s="1">
+        <v>-0.94768089954089063</v>
+      </c>
+      <c r="C152" s="1">
+        <v>-6.9361728652549175</v>
+      </c>
+      <c r="D152" s="1">
+        <v>0.97324000375479225</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="14.65">
+      <c r="A153" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="0" t="s">
+      <c r="B153" s="1">
+        <v>0.70156285600501733</v>
+      </c>
+      <c r="C153" s="1">
+        <v>-6.9861231930301813</v>
+      </c>
+      <c r="D153" s="1">
+        <v>0.97322726211153199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="14.65">
+      <c r="A154" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="0" t="s">
+      <c r="B154" s="1">
+        <v>2.3169173505654665</v>
+      </c>
+      <c r="C154" s="1">
+        <v>-6.649775370890989</v>
+      </c>
+      <c r="D154" s="1">
+        <v>0.97321467035408227</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="14.65">
+      <c r="A155" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="0" t="s">
+      <c r="B155" s="1">
+        <v>3.8096468191055268</v>
+      </c>
+      <c r="C155" s="1">
+        <v>-5.946739998788054</v>
+      </c>
+      <c r="D155" s="1">
+        <v>0.97320222585514682</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="14.65">
+      <c r="A156" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="0" t="s">
+      <c r="B156" s="1">
+        <v>5.0984901243939298</v>
+      </c>
+      <c r="C156" s="1">
+        <v>-4.9165055908814432</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0.9731899260412934</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="14.65">
+      <c r="A157" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="0" t="s">
+      <c r="B157" s="1">
+        <v>6.1139702127070796</v>
+      </c>
+      <c r="C157" s="1">
+        <v>-3.6160056134755321</v>
+      </c>
+      <c r="D157" s="1">
+        <v>0.97317776840430881</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="14.65">
+      <c r="A158" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="0" t="s">
+      <c r="B158" s="1">
+        <v>6.8019801814473206</v>
+      </c>
+      <c r="C158" s="1">
+        <v>-2.1162915460244287</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0.97316575049354137</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="14.65">
+      <c r="A159" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="0" t="s">
+      <c r="B159" s="1">
+        <v>7.1264718286518738</v>
+      </c>
+      <c r="C159" s="1">
+        <v>-0.49851369590705419</v>
+      </c>
+      <c r="D159" s="1">
+        <v>0.97315386991262576</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="14.65">
+      <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="0" t="s">
+      <c r="B160" s="1">
+        <v>7.0711259444477026</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1.1505578109769443</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0.97314212431846736</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="14.65">
+      <c r="A161" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="0" t="s">
+      <c r="B161" s="1">
+        <v>6.6399414508320529</v>
+      </c>
+      <c r="C161" s="1">
+        <v>2.7432222246267099</v>
+      </c>
+      <c r="D161" s="1">
+        <v>0.97313051142600882</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="14.65">
+      <c r="A162" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="0" t="s">
+      <c r="B162" s="1">
+        <v>5.8567395551079668</v>
+      </c>
+      <c r="C162" s="1">
+        <v>4.1954945107201151</v>
+      </c>
+      <c r="D162" s="1">
+        <v>0.97311902899698621</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="14.65">
+      <c r="A163" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="0" t="s">
+      <c r="B163" s="1">
+        <v>4.7636362004413204</v>
+      </c>
+      <c r="C163" s="1">
+        <v>5.4314658125207451</v>
+      </c>
+      <c r="D163" s="1">
+        <v>0.97310767484705119</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="14.65">
+      <c r="A164" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="0" t="s">
+      <c r="B164" s="1">
+        <v>3.4185883710676164</v>
+      </c>
+      <c r="C164" s="1">
+        <v>6.3871573632105756</v>
+      </c>
+      <c r="D164" s="1">
+        <v>0.97309644683804897</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="14.65">
+      <c r="A165" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="0" t="s">
+      <c r="B165" s="1">
+        <v>1.8921647243179056</v>
+      </c>
+      <c r="C165" s="1">
+        <v>7.0136801916737088</v>
+      </c>
+      <c r="D165" s="1">
+        <v>0.97308534287763582</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="14.65">
+      <c r="A166" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="0" t="s">
+      <c r="B166" s="1">
+        <v>0.26372655910696624</v>
+      </c>
+      <c r="C166" s="1">
+        <v>7.279554497861084</v>
+      </c>
+      <c r="D166" s="1">
+        <v>0.97307436092490751</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="14.65">
+      <c r="A167" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="0" t="s">
+      <c r="B167" s="1">
+        <v>-1.3827701513796837</v>
+      </c>
+      <c r="C167" s="1">
+        <v>7.1720901422819789</v>
+      </c>
+      <c r="D167" s="1">
+        <v>0.97306349897823396</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="14.65">
+      <c r="A168" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="0" t="s">
+      <c r="B168" s="1">
+        <v>-2.9631278590771033</v>
+      </c>
+      <c r="C168" s="1">
+        <v>6.6977806210325816</v>
+      </c>
+      <c r="D168" s="1">
+        <v>0.9730527550867607</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="14.65">
+      <c r="A169" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="0" t="s">
+      <c r="B169" s="1">
+        <v>-4.3971906280479045</v>
+      </c>
+      <c r="C169" s="1">
+        <v>5.8817144583625103</v>
+      </c>
+      <c r="D169" s="1">
+        <v>0.97304212733525053</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="14.65">
+      <c r="A170" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="0" t="s">
+      <c r="B170" s="1">
+        <v>-5.6128425451523638</v>
+      </c>
+      <c r="C170" s="1">
+        <v>4.7660575107534386</v>
+      </c>
+      <c r="D170" s="1">
+        <v>0.97303161384963555</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="14.65">
+      <c r="A171" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="0" t="s">
+      <c r="B171" s="1">
+        <v>-6.5495271225763059</v>
+      </c>
+      <c r="C171" s="1">
+        <v>3.4077048275484403</v>
+      </c>
+      <c r="D171" s="1">
+        <v>0.97302121280366527</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="14.65">
+      <c r="A172" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="0" t="s">
+      <c r="B172" s="1">
+        <v>-7.1611230956699279</v>
+      </c>
+      <c r="C172" s="1">
+        <v>1.8752393706290476</v>
+      </c>
+      <c r="D172" s="1">
+        <v>0.9730109224024035</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="14.65">
+      <c r="A173" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="0" t="s">
+      <c r="B173" s="1">
+        <v>-7.4180488264497173</v>
+      </c>
+      <c r="C173" s="1">
+        <v>0.24536539347919872</v>
+      </c>
+      <c r="D173" s="1">
+        <v>0.97300074089797217</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="14.65">
+      <c r="A174" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="0" t="s">
+      <c r="B174" s="1">
+        <v>-7.3085093971427817</v>
+      </c>
+      <c r="C174" s="1">
+        <v>-1.4009945695036647</v>
+      </c>
+      <c r="D174" s="1">
+        <v>0.97299066657143141</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="14.65">
+      <c r="A175" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="0" t="s">
+      <c r="B175" s="1">
+        <v>-6.8388451588621777</v>
+      </c>
+      <c r="C175" s="1">
+        <v>-2.9827390240633145</v>
+      </c>
+      <c r="D175" s="1">
+        <v>0.9729806977379778</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="14.65">
+      <c r="A176" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="0" t="s">
+      <c r="B176" s="1">
+        <v>-6.0329856899708982</v>
+      </c>
+      <c r="C176" s="1">
+        <v>-4.422562115570531</v>
+      </c>
+      <c r="D176" s="1">
+        <v>0.97297083274879426</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="14.65">
+      <c r="A177" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="0" t="s">
+      <c r="B177" s="1">
+        <v>-4.9310565953152743</v>
+      </c>
+      <c r="C177" s="1">
+        <v>-5.6506713498066468</v>
+      </c>
+      <c r="D177" s="1">
+        <v>0.97296107001433207</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="14.65">
+      <c r="A178" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="0" t="s">
+      <c r="B178" s="1">
+        <v>-3.5872262999425799</v>
+      </c>
+      <c r="C178" s="1">
+        <v>-6.6080741703570292</v>
+      </c>
+      <c r="D178" s="1">
+        <v>0.97295140794011248</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="14.65">
+      <c r="A179" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="0" t="s">
+      <c r="B179" s="1">
+        <v>-2.0669141878192661</v>
+      </c>
+      <c r="C179" s="1">
+        <v>-7.2492848286186717</v>
+      </c>
+      <c r="D179" s="1">
+        <v>0.97294184499124092</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="14.65">
+      <c r="A180" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="0" t="s">
+      <c r="B180" s="1">
+        <v>-0.44350867782910836</v>
+      </c>
+      <c r="C180" s="1">
+        <v>-7.5443349598906737</v>
+      </c>
+      <c r="D180" s="1">
+        <v>0.97293237963719281</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="14.65">
+      <c r="A181" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="0" t="s">
+      <c r="B181" s="1">
+        <v>1.205236919839231</v>
+      </c>
+      <c r="C181" s="1">
+        <v>-7.4800077679432286</v>
+      </c>
+      <c r="D181" s="1">
+        <v>0.97292301040393092</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="14.65">
+      <c r="A182" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="0" t="s">
+      <c r="B182" s="1">
+        <v>2.8009522759719556</v>
+      </c>
+      <c r="C182" s="1">
+        <v>-7.0602548172181265</v>
+      </c>
+      <c r="D182" s="1">
+        <v>0.97291373585317087</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="14.65">
+      <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="0" t="s">
+      <c r="B183" s="1">
+        <v>4.2683612760264653</v>
+      </c>
+      <c r="C183" s="1">
+        <v>-6.3057941975968541</v>
+      </c>
+      <c r="D183" s="1">
+        <v>0.9729045537303852</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="14.65">
+      <c r="A184" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="0" t="s">
+      <c r="B184" s="1">
+        <v>5.5387829896540746</v>
+      </c>
+      <c r="C184" s="1">
+        <v>-5.2529273163893482</v>
+      </c>
+      <c r="D184" s="1">
+        <v>0.97289546339048028</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="14.65">
+      <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="0" t="s">
+      <c r="B185" s="1">
+        <v>6.553263165904105</v>
+      </c>
+      <c r="C185" s="1">
+        <v>-3.951647188209424</v>
+      </c>
+      <c r="D185" s="1">
+        <v>0.97288646346369689</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="14.65">
+      <c r="A186" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="0" t="s">
+      <c r="B186" s="1">
+        <v>7.2651987975192052</v>
+      </c>
+      <c r="C186" s="1">
+        <v>-2.4631420130631914</v>
+      </c>
+      <c r="D186" s="1">
+        <v>0.97287755260593889</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="14.65">
+      <c r="A187" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="0" t="s">
+      <c r="B187" s="1">
+        <v>7.6423453329583699</v>
+      </c>
+      <c r="C187" s="1">
+        <v>-0.85682308744272184</v>
+      </c>
+      <c r="D187" s="1">
+        <v>0.97286872950192926</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="14.65">
+      <c r="A188" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="0" t="s">
+      <c r="B188" s="1">
+        <v>7.668127613505729</v>
+      </c>
+      <c r="C188" s="1">
+        <v>0.79297546814221398</v>
+      </c>
+      <c r="D188" s="1">
+        <v>0.97285999285990721</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="14.65">
+      <c r="A189" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="0" t="s">
+      <c r="B189" s="1">
+        <v>7.3422096571445197</v>
+      </c>
+      <c r="C189" s="1">
+        <v>2.4104665765324529</v>
+      </c>
+      <c r="D189" s="1">
+        <v>0.97285134141536733</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="14.65">
+      <c r="A190" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="0" t="s">
+      <c r="B190" s="1">
+        <v>6.6803134419577042</v>
+      </c>
+      <c r="C190" s="1">
+        <v>3.9218875636573332</v>
+      </c>
+      <c r="D190" s="1">
+        <v>0.97284277392645646</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="14.65">
+      <c r="A191" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="0" t="s">
+      <c r="B191" s="1">
+        <v>5.7133112215891151</v>
+      </c>
+      <c r="C191" s="1">
+        <v>5.2588268688625428</v>
+      </c>
+      <c r="D191" s="1">
+        <v>0.97283428917684556</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="14.65">
+      <c r="A192" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="0" t="s">
+      <c r="B192" s="1">
+        <v>4.4856481028385691</v>
+      </c>
+      <c r="C192" s="1">
+        <v>6.3612529511284039</v>
+      </c>
+      <c r="D192" s="1">
+        <v>0.97282588597211361</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="14.65">
+      <c r="A193" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="0" t="s">
+      <c r="B193" s="1">
+        <v>3.0531802602377618</v>
+      </c>
+      <c r="C193" s="1">
+        <v>7.1801155036455144</v>
+      </c>
+      <c r="D193" s="1">
+        <v>0.97281756314290424</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="14.65">
+      <c r="A194" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="0" t="s">
+      <c r="B194" s="1">
+        <v>1.4805380984460275</v>
+      </c>
+      <c r="C194" s="1">
+        <v>7.6794116391756395</v>
+      </c>
+      <c r="D194" s="1">
+        <v>0.97280931953991778</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="14.65">
+      <c r="A195" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="0" t="s">
+      <c r="B195" s="1">
+        <v>-0.16185799911200704</v>
+      </c>
+      <c r="C195" s="1">
+        <v>7.8376363487711291</v>
+      </c>
+      <c r="D195" s="1">
+        <v>0.97280115403670486</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="14.65">
+      <c r="A196" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="0" t="s">
+      <c r="B196" s="1">
+        <v>-1.8009895925808006</v>
+      </c>
+      <c r="C196" s="1">
+        <v>7.648565940475752</v>
+      </c>
+      <c r="D196" s="1">
+        <v>0.9727930655279462</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="14.65">
+      <c r="A197" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="0" t="s">
+      <c r="B197" s="1">
+        <v>-3.3644944705862936</v>
+      </c>
+      <c r="C197" s="1">
+        <v>7.1213539371473393</v>
+      </c>
+      <c r="D197" s="1">
+        <v>0.97278505292946638</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="14.65">
+      <c r="A198" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="0" t="s">
+      <c r="B198" s="1">
+        <v>-4.7838389781552815</v>
+      </c>
+      <c r="C198" s="1">
+        <v>6.2799496533252226</v>
+      </c>
+      <c r="D198" s="1">
+        <v>0.97277711517737486</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="14.65">
+      <c r="A199" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="0" t="s">
+      <c r="B199" s="1">
+        <v>-5.9972713396859483</v>
+      </c>
+      <c r="C199" s="1">
+        <v>5.1618790365970568</v>
+      </c>
+      <c r="D199" s="1">
+        <v>0.97276925122547464</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="14.65">
+      <c r="A200" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="0" t="s">
+      <c r="B200" s="1">
+        <v>-6.952431948919422</v>
+      </c>
+      <c r="C200" s="1">
+        <v>3.8164541183762717</v>
+      </c>
+      <c r="D200" s="1">
+        <v>0.97276146004997677</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="14.65">
+      <c r="A201" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="0" t="s">
+      <c r="B201" s="1">
+        <v>-7.6085146033588584</v>
+      </c>
+      <c r="C201" s="1">
+        <v>2.3025005026586216</v>
+      </c>
+      <c r="D201" s="1">
+        <v>0.97275374064452103</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="14.65">
+      <c r="A202" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="0" t="s">
+      <c r="B202" s="1">
+        <v>-7.9378947035970544</v>
+      </c>
+      <c r="C202" s="1">
+        <v>0.68571085970316747</v>
+      </c>
+      <c r="D202" s="1">
+        <v>0.97274609202169682</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="14.65">
+      <c r="A203" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="0" t="s">
+      <c r="B203" s="1">
+        <v>-7.9271654338673008</v>
+      </c>
+      <c r="C203" s="1">
+        <v>-0.96425425591958036</v>
+      </c>
+      <c r="D203" s="1">
+        <v>0.97273851321123128</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="14.65">
+      <c r="A204" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="0" t="s">
+      <c r="B204" s="1">
+        <v>-7.5775497197703228</v>
+      </c>
+      <c r="C204" s="1">
+        <v>-2.576789171032253</v>
+      </c>
+      <c r="D204" s="1">
+        <v>0.97273100326211648</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="14.65">
+      <c r="A205" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="0" t="s">
+      <c r="B205" s="1">
+        <v>-6.9046831225210399</v>
+      </c>
+      <c r="C205" s="1">
+        <v>-4.0833583006467036</v>
+      </c>
+      <c r="D205" s="1">
+        <v>0.97272356123874681</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="14.65">
+      <c r="A206" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="0" t="s">
+      <c r="B206" s="1">
+        <v>-5.9377895973336381</v>
+      </c>
+      <c r="C206" s="1">
+        <v>-5.4203762178609711</v>
+      </c>
+      <c r="D206" s="1">
+        <v>0.97271618622290479</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="14.65">
+      <c r="A207" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="0" t="s">
+      <c r="B207" s="1">
+        <v>-4.7182971078399429</v>
+      </c>
+      <c r="C207" s="1">
+        <v>-6.53183385001324</v>
+      </c>
+      <c r="D207" s="1">
+        <v>0.97270887731439082</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="14.65">
+      <c r="A208" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="0" t="s">
+      <c r="B208" s="1">
+        <v>-3.2979624534046832</v>
+      </c>
+      <c r="C208" s="1">
+        <v>-7.3715656342226117</v>
+      </c>
+      <c r="D208" s="1">
+        <v>0.97270163362665052</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="14.65">
+      <c r="A209" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="0" t="s">
+      <c r="B209" s="1">
+        <v>-1.7365934869405308</v>
+      </c>
+      <c r="C209" s="1">
+        <v>-7.9050700396066897</v>
+      </c>
+      <c r="D209" s="1">
+        <v>0.97269445429023904</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="14.65">
+      <c r="A210" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="0" t="s">
+      <c r="B210" s="1">
+        <v>-9.9471511634502754E-2</v>
+      </c>
+      <c r="C210" s="1">
+        <v>-8.1108165777835275</v>
+      </c>
+      <c r="D210" s="1">
+        <v>0.97268733845137167</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="14.65">
+      <c r="A211" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="0" t="s">
+      <c r="B211" s="1">
+        <v>1.545413420502312</v>
+      </c>
+      <c r="C211" s="1">
+        <v>-7.9809953159234448</v>
+      </c>
+      <c r="D211" s="1">
+        <v>0.97268028527106765</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="14.65">
+      <c r="A212" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="0" t="s">
+      <c r="B212" s="1">
+        <v>3.1301965832855716</v>
+      </c>
+      <c r="C212" s="1">
+        <v>-7.521688961775582</v>
+      </c>
+      <c r="D212" s="1">
+        <v>0.9726732939240047</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="14.65">
+      <c r="A213" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="0" t="s">
+      <c r="B213" s="1">
+        <v>4.5899242736743444</v>
+      </c>
+      <c r="C213" s="1">
+        <v>-6.7524717818358972</v>
+      </c>
+      <c r="D213" s="1">
+        <v>0.9726663636008247</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="14.65">
+      <c r="A214" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="0" t="s">
+      <c r="B214" s="1">
+        <v>5.8651781711211015</v>
+      </c>
+      <c r="C214" s="1">
+        <v>-5.7054629485164545</v>
+      </c>
+      <c r="D214" s="1">
+        <v>0.97265949350561054</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="14.65">
+      <c r="A215" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="0" t="s">
+      <c r="B215" s="1">
+        <v>6.9044346525117826</v>
+      </c>
+      <c r="C215" s="1">
+        <v>-4.4238834676063714</v>
+      </c>
+      <c r="D215" s="1">
+        <v>0.97265268285594386</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="14.65">
+      <c r="A216" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="0" t="s">
+      <c r="B216" s="1">
+        <v>7.6660685554430223</v>
+      </c>
+      <c r="C216" s="1">
+        <v>-2.9601847971458248</v>
+      </c>
+      <c r="D216" s="1">
+        <v>0.97264593088374884</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="14.65">
+      <c r="A217" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="0" t="s">
+      <c r="B217" s="1">
+        <v>8.119927367180404</v>
+      </c>
+      <c r="C217" s="1">
+        <v>-1.3738329512393463</v>
+      </c>
+      <c r="D217" s="1">
+        <v>0.97263923683228348</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="14.65">
+      <c r="A218" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="0" t="s">
+      <c r="B218" s="1">
+        <v>8.2484208189369479</v>
+      </c>
+      <c r="C218" s="1">
+        <v>0.2711562380437868</v>
+      </c>
+      <c r="D218" s="1">
+        <v>0.97263259996050955</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="14.65">
+      <c r="A219" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="0" t="s">
+      <c r="B219" s="1">
+        <v>8.0470915443867579</v>
+      </c>
+      <c r="C219" s="1">
+        <v>1.9088273048981752</v>
+      </c>
+      <c r="D219" s="1">
+        <v>0.97262601953804995</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="14.65">
+      <c r="A220" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="0" t="s">
+      <c r="B220" s="1">
+        <v>7.5246539402762238</v>
+      </c>
+      <c r="C220" s="1">
+        <v>3.4739339944930427</v>
+      </c>
+      <c r="D220" s="1">
+        <v>0.97261949484570553</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="14.65">
+      <c r="A221" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="0" t="s">
+      <c r="B221" s="1">
+        <v>6.7025097680119199</v>
+      </c>
+      <c r="C221" s="1">
+        <v>4.9045209230000575</v>
+      </c>
+      <c r="D221" s="1">
+        <v>0.97261302518068926</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="14.65">
+      <c r="A222" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="0" t="s">
+      <c r="B222" s="1">
+        <v>5.6137695149690705</v>
+      </c>
+      <c r="C222" s="1">
+        <v>6.1443373051340417</v>
+      </c>
+      <c r="D222" s="1">
+        <v>0.97260660984775371</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="14.65">
+      <c r="A223" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="0" t="s">
+      <c r="B223" s="1">
+        <v>4.3018273159659426</v>
+      </c>
+      <c r="C223" s="1">
+        <v>7.1449909247640191</v>
+      </c>
+      <c r="D223" s="1">
+        <v>0.97260024816636748</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="14.65">
+      <c r="A224" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="0" t="s">
+      <c r="B224" s="1">
+        <v>2.818553635901992</v>
+      </c>
+      <c r="C224" s="1">
+        <v>7.8677628044285211</v>
+      </c>
+      <c r="D224" s="1">
+        <v>0.97259393946475081</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="14.65">
+      <c r="A225" s="1" t="s">
         <v>226</v>
       </c>
+      <c r="B225" s="1">
+        <v>1.2221833679688352</v>
+      </c>
+      <c r="C225" s="1">
+        <v>8.2850180832009279</v>
+      </c>
+      <c r="D225" s="1">
+        <v>0.97258768308344701</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>